--- a/app/static/images/One Solution Per Day.xlsx
+++ b/app/static/images/One Solution Per Day.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgott\Desktop\Coding\Coding_Temple\capstone\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgott\Desktop\Coding\Coding_Temple\capstone-flask\app\static\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B5A0D4-B2E3-483D-B1D3-A163C691243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045653D-4466-488F-B601-53BF6507B070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="456" yWindow="4752" windowWidth="12216" windowHeight="11844" xr2:uid="{04D6D47B-2052-4252-9814-11BC6B9677A5}"/>
+    <workbookView xWindow="4488" yWindow="2244" windowWidth="17328" windowHeight="6468" xr2:uid="{04D6D47B-2052-4252-9814-11BC6B9677A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>problem_description</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Go through your closet and donate winter clothes to a school or goodwill.</t>
   </si>
   <si>
-    <t>Sign up to be an organ donor. (www.bethematch.com)</t>
-  </si>
-  <si>
     <t>Donate to a food pantry.</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Find someone in your sphere who is not currently registered to vote and help them get registered today.</t>
   </si>
   <si>
-    <t>Common decency is in short supply. People turn quickly to anger, hate, or nastiness.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Do something nice for a stranger. Let someone merge. Hold a door. Offer up a positive example.  Extra credit if you can choose kindness over conflict. </t>
   </si>
   <si>
@@ -134,23 +128,134 @@
     <t>9 reasons to plant a tree: (Source - https://arbordayblog.org/treeplanting/9-reasons-to-plant-a-tree/)</t>
   </si>
   <si>
-    <t>According to Yelp data, permanent closures have reached 97,966, representing 60% of closed businesses that won’t be reopening.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African Americans lag their white counterparts in many indicators of health, wealth, and well-being.  </t>
-  </si>
-  <si>
     <t>Many challenges are either caused by or exacerbated by systemic racism, which leads to a lack of economic opportunity.  Do your part.  Shop or dine at a black-owned business.</t>
   </si>
   <si>
     <t>Civic engagement has gone the way of the bell-bottoms.  Let's bring it back in our communities.</t>
+  </si>
+  <si>
+    <t>Learn More</t>
+  </si>
+  <si>
+    <t>Image Link</t>
+  </si>
+  <si>
+    <t>https://www.americanprogress.org/article/basic-facts-children-poverty/</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/winter_coats.jpg') }}</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/elderly.jfif') }}</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/aging/publications/features/lonely-older-adults.html#:~:text=Older%20adults%20are%20at%20increased,the%20amount%20of%20social%20contact.</t>
+  </si>
+  <si>
+    <t>https://climate.nasa.gov/evidence/</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/climate_change.svg') }}</t>
+  </si>
+  <si>
+    <t>https://www.apta.com/news-publications/public-transportation-facts/</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/vote.webp') }}</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/shelter.jpg') }}</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/Family-Eating2.jpg') }}</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/buy_local.png') }}</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/Biking.png') }}</t>
+  </si>
+  <si>
+    <t>https://www.redcross.org/?cid=generic&amp;med=cpc&amp;source=google&amp;scode=RSG00000E017&amp;gclid=Cj0KCQjw8uOWBhDXARIsAOxKJ2EniDYkGct5vQyk4ILNO4Ovi783nwYSh1AzzviqBO7GT1v0v48xN_saAjLVEALw_wcB&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/blood.jpg') }}</t>
+  </si>
+  <si>
+    <t>Sign up to be an organ donor. www.bethematch.com</t>
+  </si>
+  <si>
+    <t>http://www.bethematch.com</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/organ.png') }}</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/child_hunger.avif') }}</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/Civility.png') }}</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/litter.png') }}</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/plant-a-tree.jpg') }}</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/black-owned.jpg') }}</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/volunteerism.jpg') }}</t>
+  </si>
+  <si>
+    <t>https://www.apa.org/education-career/undergrad/civic-engagement</t>
+  </si>
+  <si>
+    <t>https://operationhope.org/initiatives/1-million-black-businesses/?gclid=Cj0KCQjw8uOWBhDXARIsAOxKJ2Gbuc4J8Ppsb2CMmXaKZswgyXgpKh-BImZVGgyDL75HmaxR67PiIS8aAuLbEALw_wcB</t>
+  </si>
+  <si>
+    <t>https://sustainableconnections.org/why-buy-local/</t>
+  </si>
+  <si>
+    <t>https://carbonfund.org/product-category/plant-trees/?gclid=Cj0KCQjw8uOWBhDXARIsAOxKJ2Hu2P9alzxV7XKeeY9pd8tk0h8Ijj5HpMa3KV7xmr1uJ1bmUu3BXDwaAsq9EALw_wcB</t>
+  </si>
+  <si>
+    <t>https://kids.nationalgeographic.com/nature/article/clean-it-up</t>
+  </si>
+  <si>
+    <t>https://evc.ucsd.edu/about/ARCC.html</t>
+  </si>
+  <si>
+    <t>https://www.usa.gov/voter-registration</t>
+  </si>
+  <si>
+    <t>https://www.thehotline.org/</t>
+  </si>
+  <si>
+    <t>https://hungerandhealth.feedingamerica.org/understand-food-insecurity/</t>
+  </si>
+  <si>
+    <t>https://www.stanfordchildrens.org/en/topic/default?id=why-the-family-meal-is-important-1-701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common decency is in short supply. </t>
+  </si>
+  <si>
+    <t>According to Yelp data,  97,966 businesses closed during the pandemic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[parameters: ({'target_date': '2022-08-03', 'problem': 'Many challenges are either caused by or exacerbated by systemic racism.', 'action': 'Shop at a black-owned business', 'goal': '3000 Patrons', 'resource': 'https://operationhope.org/initiatives/1-million-black-', 'image_link': "{{ url_for('static', filename='images/black-owned.jpg') }}"}, {'target_date': '2022-08-02', </t>
+  </si>
+  <si>
+    <t>'problem': 'According to Yelp data,  97,966 businesses closed during the pandemic.', 'action': 'Buy something locally that you would usually go online for.', 'goal': '3000 Local Purchases', 'resource': 'https://sustainableconnections.org/why-buy-local/', 'image_link': "{{ url_for('static', filename='images/buy_local.png') }}"}, {'target_date': '2022-08-01', 'problem': 'Common decency is in short supply.', 'action': 'Do something nice for a stranger. Let someone merge. Hold a door. Offer up a positive example.', 'goal': '5000 Kind Gestures', 'resource': 'https://evc.ucsd.edu/about/ARCC.html', 'image_link': "{{ url_for('static', filename='images/Civility.png') }}"}, {'target_date': '2022-07-31', 'problem': 'Democracy is the worst sytem out there, except for all the others.', 'action': 'Find someone in your sphere who is not currently registered to vote and help them get registered today.', 'goal': '5000 Voter Registrations', 'resource': 'https://www.usa.gov/voter-registration', 'image_link': "{{ url_for('static', filename='images/vote.webp') }}"}, {'target_date': '2022-07-30', 'problem': 'Many women with young children end up in shelters due to abuse, neglect, or other challenges.', 'action': "Donate to women's shelter. (clothes, baby supplies, diapers)", 'goal': '2500 Donations', 'resource': 'https://www.thehotline.org/', 'image_link': "{{ url_for('static', filename='images/shelter.jpg') }}"}, {'target_date': '2022-07-29', 'problem': 'Over 10% of Americans, including 12 million children, struggle with food insecurity.', 'action': 'Donate to a food pantry.', 'goal': '3000 Donations', 'resource': 'https://hungerandhealth.feedingamerica.org/understand-food-insecurity/', 'image_link': "{{ url_for('static', filename='images/child_hunger.avif') }}"}, {'target_date': '2022-07-28', 'problem': 'Many patients die while still waiting for needed donor organs due to lack of supply.', 'action': 'Sign up to be an organ donor.', 'goal': '2000 Organ Donation Registrations', 'resource': 'http://www.bethematch.com', 'image_link': "{{ url_for('static', filename='images/organ.png') }}"}, {'target_date': '2022-07-27', 'problem': 'Blood supplies are low in many parts of the country and world.', 'action': 'Make an appointment to donate blood.', 'goal': '1500 Donations', 'resource': 'https://www.redcross.org/?cid=generic&amp;med=cpc&amp;source=google&amp;scode=RSG00000E017&amp;gclid=Cj0KCQjw8uOWBhDXARIsAOxKJ2EniDYkGct5vQyk4ILNO4Ovi783nwYSh1AzzviqBO7GT1v0v48xN_saAjLVEALw_wcB&amp;gclsrc=aw.ds', 'image_link': "{{ url_for('static', filename='images/blood.jpg') }}"}  ... displaying 10 of 12 total bound parameter sets ...  {'target_date': '2022-07-24', 'problem': 'Many elderly are feeling isolated during the pandemic.', 'action': 'Call an elderly member of your family today.', 'goal': '3000 Phone Calls', 'resource': 'https://www.cdc.gov/aging/publications/features/lonely-older-adults.html#:~:text=Older%20adults%20are%20at%20increased,the%20amount%20of%20social%20contact.', 'image_link': "{{ url_for('static', filename='images/elderly.jfif') }}"}, {'target_date': '2022-07-20', 'problem': '', 'action': '', 'goal': '', 'resource': '', 'image_link': "{{ url_for('static', filename='images/') }}"})]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,10 +264,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF171717"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,15 +311,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDD53B7-8FEE-489E-880E-83AB7AFEDA8D}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,269 +656,375 @@
     <col min="3" max="3" width="64.109375" customWidth="1"/>
     <col min="4" max="4" width="64.21875" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4">
         <v>44713</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="E2" s="3"/>
+      <c r="F2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
         <v>44714</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="E3" s="3"/>
+      <c r="F3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
         <v>44715</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="E4" s="3"/>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
         <v>44716</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="E5" s="3"/>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
         <v>44717</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="E6" s="3"/>
+      <c r="F6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
         <v>44718</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>44719</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44719</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>44720</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44720</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>44721</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44721</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4">
+        <v>44722</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4">
+        <v>44723</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4">
+        <v>44724</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44722</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44723</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4">
+        <v>44725</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44724</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4">
+        <v>44726</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4">
+        <v>44727</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44725</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4">
+        <v>44728</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44726</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44727</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44728</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{BB362D25-C856-44AA-9429-BBBA7D64E4D9}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{990D45BC-B11A-4CF5-9D38-FDB3D3D74DF2}"/>
+    <hyperlink ref="F3" r:id="rId3" location=":~:text=Older%20adults%20are%20at%20increased,the%20amount%20of%20social%20contact." xr:uid="{12AA20A1-D4A4-4F27-96BE-1A7487333471}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{24C3BF6E-7147-4EF3-857E-78DFC9571B37}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{6D03331D-6097-42D2-96C6-F6E1EA88B82D}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{52CFD29C-5FAC-4E0A-BA41-66819DD730A0}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{A46B1A05-0788-44D5-880B-031BCD040499}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{CB9B6EB9-3951-4807-9E61-894E71985DD8}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{CFD39E69-EAC8-4334-BD83-DCC8F30EC14A}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{AA4F2BD3-9DBD-4ABA-BF18-CE3D3B78ED47}"/>
+    <hyperlink ref="F15" r:id="rId11" xr:uid="{A6B192A8-24F5-4881-A39F-5A1C0CE94262}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{55D66C2A-6699-4F46-85D6-E162A96716AE}"/>
+    <hyperlink ref="F5" r:id="rId13" xr:uid="{9362D4B2-0343-4322-BF99-ECB00ACD514D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
--- a/app/static/images/One Solution Per Day.xlsx
+++ b/app/static/images/One Solution Per Day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgott\Desktop\Coding\Coding_Temple\capstone-flask\app\static\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045653D-4466-488F-B601-53BF6507B070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C47BD1-76FC-4604-98AB-D6F7190DE8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="2244" windowWidth="17328" windowHeight="6468" xr2:uid="{04D6D47B-2052-4252-9814-11BC6B9677A5}"/>
+    <workbookView xWindow="240" yWindow="588" windowWidth="22488" windowHeight="11112" xr2:uid="{04D6D47B-2052-4252-9814-11BC6B9677A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDD53B7-8FEE-489E-880E-83AB7AFEDA8D}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/app/static/images/One Solution Per Day.xlsx
+++ b/app/static/images/One Solution Per Day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgott\Desktop\Coding\Coding_Temple\capstone-flask\app\static\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C47BD1-76FC-4604-98AB-D6F7190DE8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41CFC6A-D0FD-4C9A-88A0-029ACF641BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="588" windowWidth="22488" windowHeight="11112" xr2:uid="{04D6D47B-2052-4252-9814-11BC6B9677A5}"/>
+    <workbookView xWindow="1260" yWindow="132" windowWidth="17280" windowHeight="8004" xr2:uid="{04D6D47B-2052-4252-9814-11BC6B9677A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDD53B7-8FEE-489E-880E-83AB7AFEDA8D}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/app/static/images/One Solution Per Day.xlsx
+++ b/app/static/images/One Solution Per Day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgott\Desktop\Coding\Coding_Temple\capstone-flask\app\static\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41CFC6A-D0FD-4C9A-88A0-029ACF641BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B6ED2-CCD7-4ABB-9522-7E13D0D50097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="132" windowWidth="17280" windowHeight="8004" xr2:uid="{04D6D47B-2052-4252-9814-11BC6B9677A5}"/>
+    <workbookView xWindow="72" yWindow="5256" windowWidth="22968" windowHeight="6660" xr2:uid="{04D6D47B-2052-4252-9814-11BC6B9677A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,9 +188,6 @@
     <t>http://www.bethematch.com</t>
   </si>
   <si>
-    <t>{{ url_for('static', filename='images/organ.png') }}</t>
-  </si>
-  <si>
     <t>{{ url_for('static', filename='images/child_hunger.avif') }}</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>'problem': 'According to Yelp data,  97,966 businesses closed during the pandemic.', 'action': 'Buy something locally that you would usually go online for.', 'goal': '3000 Local Purchases', 'resource': 'https://sustainableconnections.org/why-buy-local/', 'image_link': "{{ url_for('static', filename='images/buy_local.png') }}"}, {'target_date': '2022-08-01', 'problem': 'Common decency is in short supply.', 'action': 'Do something nice for a stranger. Let someone merge. Hold a door. Offer up a positive example.', 'goal': '5000 Kind Gestures', 'resource': 'https://evc.ucsd.edu/about/ARCC.html', 'image_link': "{{ url_for('static', filename='images/Civility.png') }}"}, {'target_date': '2022-07-31', 'problem': 'Democracy is the worst sytem out there, except for all the others.', 'action': 'Find someone in your sphere who is not currently registered to vote and help them get registered today.', 'goal': '5000 Voter Registrations', 'resource': 'https://www.usa.gov/voter-registration', 'image_link': "{{ url_for('static', filename='images/vote.webp') }}"}, {'target_date': '2022-07-30', 'problem': 'Many women with young children end up in shelters due to abuse, neglect, or other challenges.', 'action': "Donate to women's shelter. (clothes, baby supplies, diapers)", 'goal': '2500 Donations', 'resource': 'https://www.thehotline.org/', 'image_link': "{{ url_for('static', filename='images/shelter.jpg') }}"}, {'target_date': '2022-07-29', 'problem': 'Over 10% of Americans, including 12 million children, struggle with food insecurity.', 'action': 'Donate to a food pantry.', 'goal': '3000 Donations', 'resource': 'https://hungerandhealth.feedingamerica.org/understand-food-insecurity/', 'image_link': "{{ url_for('static', filename='images/child_hunger.avif') }}"}, {'target_date': '2022-07-28', 'problem': 'Many patients die while still waiting for needed donor organs due to lack of supply.', 'action': 'Sign up to be an organ donor.', 'goal': '2000 Organ Donation Registrations', 'resource': 'http://www.bethematch.com', 'image_link': "{{ url_for('static', filename='images/organ.png') }}"}, {'target_date': '2022-07-27', 'problem': 'Blood supplies are low in many parts of the country and world.', 'action': 'Make an appointment to donate blood.', 'goal': '1500 Donations', 'resource': 'https://www.redcross.org/?cid=generic&amp;med=cpc&amp;source=google&amp;scode=RSG00000E017&amp;gclid=Cj0KCQjw8uOWBhDXARIsAOxKJ2EniDYkGct5vQyk4ILNO4Ovi783nwYSh1AzzviqBO7GT1v0v48xN_saAjLVEALw_wcB&amp;gclsrc=aw.ds', 'image_link': "{{ url_for('static', filename='images/blood.jpg') }}"}  ... displaying 10 of 12 total bound parameter sets ...  {'target_date': '2022-07-24', 'problem': 'Many elderly are feeling isolated during the pandemic.', 'action': 'Call an elderly member of your family today.', 'goal': '3000 Phone Calls', 'resource': 'https://www.cdc.gov/aging/publications/features/lonely-older-adults.html#:~:text=Older%20adults%20are%20at%20increased,the%20amount%20of%20social%20contact.', 'image_link': "{{ url_for('static', filename='images/elderly.jfif') }}"}, {'target_date': '2022-07-20', 'problem': '', 'action': '', 'goal': '', 'resource': '', 'image_link': "{{ url_for('static', filename='images/') }}"})]</t>
+  </si>
+  <si>
+    <t>{{ url_for('static', filename='images/organ.jpg') }}</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDD53B7-8FEE-489E-880E-83AB7AFEDA8D}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>44</v>
@@ -812,7 +812,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -828,10 +828,10 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -847,7 +847,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>43</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
@@ -878,17 +878,17 @@
         <v>44723</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -904,10 +904,10 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -923,10 +923,10 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -935,14 +935,14 @@
         <v>44726</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>45</v>
@@ -959,10 +959,10 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -978,10 +978,10 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -990,13 +990,13 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
